--- a/1/task.xlsx
+++ b/1/task.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Klym Oleh</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>https://www.codewars.com/kata/artificial-rain</t>
+  </si>
+  <si>
+    <t>Вилучена</t>
+  </si>
+  <si>
+    <t>Взяв ---&gt;</t>
+  </si>
+  <si>
+    <t>https://www.codewars.com/kata/515bb423de843ea99400000a/</t>
   </si>
 </sst>
 </file>
@@ -167,16 +176,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -482,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:D9"/>
+  <dimension ref="B5:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,53 +505,68 @@
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
     <col min="4" max="4" width="54.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="5" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="5" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -552,6 +578,8 @@
     <hyperlink ref="D6" r:id="rId2"/>
     <hyperlink ref="D7" r:id="rId3"/>
     <hyperlink ref="D8" r:id="rId4"/>
+    <hyperlink ref="H9" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/task.xlsx
+++ b/1/task.xlsx
@@ -183,11 +183,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -496,7 +496,7 @@
   <dimension ref="B5:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +511,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -522,7 +522,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -531,7 +531,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -540,7 +540,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -549,11 +549,11 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
@@ -562,10 +562,10 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
